--- a/Datos/Database by set/Set with text box/Xlsx sets/Odyssey Promos (PODY).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Odyssey Promos (PODY).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,42 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>باسلْ ليسك – الحجر واللسان</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{4}{G}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>مخلوق – باسلْ ليسك</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>أينما يقوم باسلْ ليسك — الحجر واللسان، بتوجيه ضرر قتالي لمخلوق اَخر، قم بتحطيم هذا المخلوق المضروب عند نهاية القتال.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>الحد — على جميع المخلوقات القادرة على سد هجوم باسلْ ليسك — الحجر واللسان، عمل ذلك. (لديك الحد طالما وجد سبع بطاقات أو أكثر في مقبرتك).</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4/5</t>
+          <t>('باسلْ ليسك – الحجر واللسان', ['{4}{G}{G}{G}', 'مخلوق – باسلْ ليسك', 'أينما يقوم باسلْ ليسك — الحجر واللسان، بتوجيه ضرر قتالي لمخلوق اَخر، قم بتحطيم هذا المخلوق المضروب عند نهاية القتال.', 'الحد — على جميع المخلوقات القادرة على سد هجوم باسلْ ليسك — الحجر واللسان، عمل ذلك. (لديك الحد طالما وجد سبع بطاقات أو أكثر في مقبرتك).', '4/5'])</t>
         </is>
       </c>
     </row>
